--- a/biology/Neurosciences/Carole_Escartin/Carole_Escartin.xlsx
+++ b/biology/Neurosciences/Carole_Escartin/Carole_Escartin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carole Escartin, née en 1979, est une chercheuse française en neurosciences travaillant pour le CNRS. Elle est récipiendaire de la Médaille de bronze du CNRS 2017[1] pour ses travaux sur les astrocytes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carole Escartin, née en 1979, est une chercheuse française en neurosciences travaillant pour le CNRS. Elle est récipiendaire de la Médaille de bronze du CNRS 2017 pour ses travaux sur les astrocytes.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ancienne élève de l'École Normale Supérieure, Escartin obtient en 2006 un doctorat en neurosciences de l'Université Pierre et Marie Curie[2].
-Elle obtient en 2010 un financement Jeune chercheuse de l’Agence nationale de la recherche[3] et, en 2017, un financement Tremplin-ERC du Conseil européen de la recherche[3].
-En 2024, elle prend la tête d'une nouvelle équipe à l'Institut des Neurosciences Paris‑Saclay, travaillant sur la « signalisation astrocytaire en physiologie et dans les maladies neurodégénératives »[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ancienne élève de l'École Normale Supérieure, Escartin obtient en 2006 un doctorat en neurosciences de l'Université Pierre et Marie Curie.
+Elle obtient en 2010 un financement Jeune chercheuse de l’Agence nationale de la recherche et, en 2017, un financement Tremplin-ERC du Conseil européen de la recherche.
+En 2024, elle prend la tête d'une nouvelle équipe à l'Institut des Neurosciences Paris‑Saclay, travaillant sur la « signalisation astrocytaire en physiologie et dans les maladies neurodégénératives ».
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Distinctions et récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2017 : Médaille de bronze du CNRS[1]
-2019 : Prix Joël Ménard 2019 de la Fondation Alzheimer en recherche fondamentale[4]
-2023 : L'équipe de Carole Escartin est labellisée « Équipe FRM 2023 » par la Fondation pour la Recherche Médicale[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2017 : Médaille de bronze du CNRS
+2019 : Prix Joël Ménard 2019 de la Fondation Alzheimer en recherche fondamentale
+2023 : L'équipe de Carole Escartin est labellisée « Équipe FRM 2023 » par la Fondation pour la Recherche Médicale.</t>
         </is>
       </c>
     </row>
